--- a/test_suite_cnj02办理审核.xlsx
+++ b/test_suite_cnj02办理审核.xlsx
@@ -202,7 +202,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001</t>
+    <t>cnj_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -214,7 +214,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>cnj_st_002</t>
+    <t>cnj_st_002_我的待办进入</t>
   </si>
   <si>
     <t>海口政务系统-我的待办进入</t>
@@ -226,7 +226,7 @@
     <t>进入我的待办操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003</t>
+    <t>cnj_st_003_待办事项查询</t>
   </si>
   <si>
     <t>我的待办-查询待办事项</t>
@@ -238,7 +238,7 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>cnj_st_004</t>
+    <t>cnj_st_004_办理审核提交</t>
   </si>
   <si>
     <t>待办办理信息验证</t>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -325,37 +325,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,7 +365,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,30 +438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,45 +462,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -483,13 +483,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,55 +627,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,109 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,17 +677,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,41 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,133 +794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,12 +1705,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="43.875" style="16" customWidth="1"/>
@@ -1809,12 +1809,12 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="2" customWidth="1"/>

--- a/test_suite_cnj02办理审核.xlsx
+++ b/test_suite_cnj02办理审核.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,35 +324,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,8 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,31 +375,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,8 +413,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,7 +462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,43 +483,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,139 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,30 +674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -735,7 +711,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +721,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,11 +753,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,133 +794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1978,7 +1978,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
